--- a/CHAPTER 3 - FILE LATIHAN.xlsx
+++ b/CHAPTER 3 - FILE LATIHAN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29725"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\file aku\CHAPTER 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56E65E4E-E73E-4CE6-A443-21A9D10B627C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61012345-A5BF-43B3-BBAF-D203D71FF8D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{693565E2-392B-4565-A682-3DF03F4B8C70}"/>
+    <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10780" activeTab="3" xr2:uid="{693565E2-392B-4565-A682-3DF03F4B8C70}"/>
   </bookViews>
   <sheets>
     <sheet name="CATATAN" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="163">
   <si>
     <t>NO</t>
   </si>
@@ -1114,9 +1114,6 @@
   </si>
   <si>
     <t>BELUM</t>
-  </si>
-  <si>
-    <t>SUDAH</t>
   </si>
   <si>
     <t>Misi Level 4:</t>
@@ -2803,7 +2800,7 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="271">
+  <cellXfs count="272">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -3166,6 +3163,237 @@
       <alignment vertical="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3225,6 +3453,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3264,13 +3500,19 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -3306,136 +3548,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="88" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="17" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="91" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="92" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="94" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="95" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="98" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="91" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="92" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="93" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="94" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="95" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="96" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="97" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="98" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="99" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
@@ -3465,131 +3577,20 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="88" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="99" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="100" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="19" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="20" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="101" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -4405,42 +4406,42 @@
       <c r="J3" s="94"/>
     </row>
     <row r="6" spans="2:11" ht="23.5">
-      <c r="C6" s="151" t="s">
+      <c r="C6" s="218" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
+      <c r="D6" s="218"/>
+      <c r="E6" s="218"/>
+      <c r="F6" s="218"/>
     </row>
     <row r="7" spans="2:11" ht="18.5">
-      <c r="C7" s="152" t="s">
+      <c r="C7" s="219" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="152"/>
-      <c r="E7" s="152"/>
-      <c r="F7" s="152"/>
-      <c r="G7" s="152"/>
-      <c r="H7" s="152"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="152"/>
-      <c r="K7" s="152"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
+      <c r="F7" s="219"/>
+      <c r="G7" s="219"/>
+      <c r="H7" s="219"/>
+      <c r="I7" s="219"/>
+      <c r="J7" s="219"/>
+      <c r="K7" s="219"/>
     </row>
     <row r="10" spans="2:11" ht="18.5">
-      <c r="C10" s="153" t="s">
+      <c r="C10" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="D10" s="154"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="155"/>
+      <c r="D10" s="221"/>
+      <c r="E10" s="221"/>
+      <c r="F10" s="222"/>
     </row>
     <row r="11" spans="2:11" ht="18.5">
       <c r="C11" s="55"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="217" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="150"/>
+      <c r="D12" s="217"/>
     </row>
     <row r="13" spans="2:11">
       <c r="C13" t="s">
@@ -4468,10 +4469,10 @@
       </c>
     </row>
     <row r="16" spans="2:11" ht="14.5" customHeight="1">
-      <c r="B16" s="144">
+      <c r="B16" s="211">
         <v>1</v>
       </c>
-      <c r="C16" s="147" t="s">
+      <c r="C16" s="214" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="25">
@@ -4484,13 +4485,13 @@
         <f>D16*E16</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G16" s="156" t="s">
+      <c r="G16" s="223" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="145"/>
-      <c r="C17" s="148"/>
+      <c r="B17" s="212"/>
+      <c r="C17" s="215"/>
       <c r="D17" s="24" t="s">
         <v>58</v>
       </c>
@@ -4501,11 +4502,11 @@
         <f>D17*E17</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G17" s="157"/>
+      <c r="G17" s="224"/>
     </row>
     <row r="18" spans="2:7" ht="15" thickBot="1">
-      <c r="B18" s="146"/>
-      <c r="C18" s="149"/>
+      <c r="B18" s="213"/>
+      <c r="C18" s="216"/>
       <c r="D18" s="27" t="s">
         <v>57</v>
       </c>
@@ -4516,52 +4517,52 @@
         <f>D18*E18</f>
         <v>#VALUE!</v>
       </c>
-      <c r="G18" s="158"/>
+      <c r="G18" s="225"/>
     </row>
     <row r="19" spans="2:7" ht="14.5" customHeight="1">
-      <c r="B19" s="144">
+      <c r="B19" s="211">
         <v>2</v>
       </c>
-      <c r="C19" s="147" t="s">
+      <c r="C19" s="214" t="s">
         <v>55</v>
       </c>
-      <c r="D19" s="147">
+      <c r="D19" s="214">
         <v>100</v>
       </c>
-      <c r="E19" s="161" t="s">
+      <c r="E19" s="228" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="147">
+      <c r="F19" s="214">
         <f>SUM(D19:E19)</f>
         <v>100</v>
       </c>
-      <c r="G19" s="159" t="s">
+      <c r="G19" s="226" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="145"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="159"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="215"/>
+      <c r="D20" s="215"/>
+      <c r="E20" s="229"/>
+      <c r="F20" s="215"/>
+      <c r="G20" s="226"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="145"/>
-      <c r="C21" s="148"/>
-      <c r="D21" s="148"/>
-      <c r="E21" s="162"/>
-      <c r="F21" s="148"/>
-      <c r="G21" s="159"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="215"/>
+      <c r="D21" s="215"/>
+      <c r="E21" s="229"/>
+      <c r="F21" s="215"/>
+      <c r="G21" s="226"/>
     </row>
     <row r="22" spans="2:7" ht="15" thickBot="1">
-      <c r="B22" s="146"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="163"/>
-      <c r="F22" s="149"/>
-      <c r="G22" s="160"/>
+      <c r="B22" s="213"/>
+      <c r="C22" s="216"/>
+      <c r="D22" s="216"/>
+      <c r="E22" s="230"/>
+      <c r="F22" s="216"/>
+      <c r="G22" s="227"/>
     </row>
     <row r="23" spans="2:7">
       <c r="B23" s="10"/>
@@ -4582,10 +4583,10 @@
       <c r="G24" s="35"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="C26" s="150" t="s">
+      <c r="C26" s="217" t="s">
         <v>90</v>
       </c>
-      <c r="D26" s="150"/>
+      <c r="D26" s="217"/>
     </row>
     <row r="27" spans="2:7">
       <c r="C27" s="1" t="s">
@@ -4598,10 +4599,10 @@
       </c>
     </row>
     <row r="30" spans="2:7">
-      <c r="C30" s="150" t="s">
+      <c r="C30" s="217" t="s">
         <v>122</v>
       </c>
-      <c r="D30" s="150"/>
+      <c r="D30" s="217"/>
     </row>
     <row r="31" spans="2:7">
       <c r="C31" s="1" t="s">
@@ -4667,25 +4668,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25" customHeight="1" thickBot="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="241" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="173"/>
+      <c r="B1" s="241"/>
+      <c r="C1" s="241"/>
+      <c r="D1" s="241"/>
+      <c r="E1" s="242"/>
       <c r="F1" s="124" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.5" thickBot="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="243" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="175"/>
+      <c r="B2" s="243"/>
+      <c r="C2" s="243"/>
+      <c r="D2" s="243"/>
+      <c r="E2" s="244"/>
       <c r="F2" s="134" t="str">
         <f>I30</f>
         <v>⏳ BELUM DISELESAIKAN</v>
@@ -4758,7 +4759,7 @@
       <c r="E6" s="3">
         <v>1806131</v>
       </c>
-      <c r="H6" s="170" t="s">
+      <c r="H6" s="239" t="s">
         <v>73</v>
       </c>
       <c r="J6" s="10"/>
@@ -4780,7 +4781,7 @@
       <c r="E7" s="3">
         <v>3245984</v>
       </c>
-      <c r="H7" s="171"/>
+      <c r="H7" s="240"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
     </row>
@@ -4886,14 +4887,14 @@
       <c r="E12" s="34">
         <v>554177</v>
       </c>
-      <c r="G12" s="164">
+      <c r="G12" s="233">
         <v>1</v>
       </c>
-      <c r="H12" s="165" t="s">
+      <c r="H12" s="234" t="s">
         <v>136</v>
       </c>
-      <c r="I12" s="168"/>
-      <c r="J12" s="169" t="str">
+      <c r="I12" s="237"/>
+      <c r="J12" s="238" t="str">
         <f>IF(I12="","Isi Jawabannya di Cell I12",IF(I12="B10:E12","YUP BENARR","COBA LAGI,JANGAN LUPA FORMAT NYA SESUAI ATURAN DIATAS YA"))</f>
         <v>Isi Jawabannya di Cell I12</v>
       </c>
@@ -4914,10 +4915,10 @@
       <c r="E13" s="3">
         <v>3925359</v>
       </c>
-      <c r="G13" s="164"/>
-      <c r="H13" s="166"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="169"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="235"/>
+      <c r="I13" s="237"/>
+      <c r="J13" s="238"/>
     </row>
     <row r="14" spans="1:11" ht="15.5" thickTop="1" thickBot="1">
       <c r="A14" s="32">
@@ -4935,10 +4936,10 @@
       <c r="E14" s="3">
         <v>779503</v>
       </c>
-      <c r="G14" s="164"/>
-      <c r="H14" s="167"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="G14" s="233"/>
+      <c r="H14" s="236"/>
+      <c r="I14" s="237"/>
+      <c r="J14" s="238"/>
     </row>
     <row r="15" spans="1:11" ht="15.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="32">
@@ -4956,14 +4957,14 @@
       <c r="E15" s="3">
         <v>429563</v>
       </c>
-      <c r="G15" s="164">
+      <c r="G15" s="233">
         <v>2</v>
       </c>
-      <c r="H15" s="165" t="s">
+      <c r="H15" s="234" t="s">
         <v>137</v>
       </c>
-      <c r="I15" s="168"/>
-      <c r="J15" s="169" t="str">
+      <c r="I15" s="237"/>
+      <c r="J15" s="238" t="str">
         <f>IF(I15="","Isi Jawabannya di Cell I15",IF(I15="A39:E47","YUP BENARR","COBA LAGI,JANGAN LUPA FORMAT NYA SESUAI ATURAN DIATAS YA"))</f>
         <v>Isi Jawabannya di Cell I15</v>
       </c>
@@ -4984,10 +4985,10 @@
       <c r="E16" s="3">
         <v>1573794</v>
       </c>
-      <c r="G16" s="164"/>
-      <c r="H16" s="166"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="169"/>
+      <c r="G16" s="233"/>
+      <c r="H16" s="235"/>
+      <c r="I16" s="237"/>
+      <c r="J16" s="238"/>
     </row>
     <row r="17" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
       <c r="A17" s="32">
@@ -5005,10 +5006,10 @@
       <c r="E17" s="3">
         <v>1758420</v>
       </c>
-      <c r="G17" s="164"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="169"/>
+      <c r="G17" s="233"/>
+      <c r="H17" s="236"/>
+      <c r="I17" s="237"/>
+      <c r="J17" s="238"/>
     </row>
     <row r="18" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A18" s="32">
@@ -5026,14 +5027,14 @@
       <c r="E18" s="3">
         <v>2941895</v>
       </c>
-      <c r="G18" s="164">
+      <c r="G18" s="233">
         <v>3</v>
       </c>
-      <c r="H18" s="165" t="s">
+      <c r="H18" s="234" t="s">
         <v>138</v>
       </c>
-      <c r="I18" s="168"/>
-      <c r="J18" s="169" t="str">
+      <c r="I18" s="237"/>
+      <c r="J18" s="238" t="str">
         <f>IF(I18="","Isi Jawabannya di Cell I18",IF(I18="B18:C27","YUP BENARR","COBA LAGI,JANGAN LUPA FORMAT NYA SESUAI ATURAN DIATAS YA"))</f>
         <v>Isi Jawabannya di Cell I18</v>
       </c>
@@ -5054,10 +5055,10 @@
       <c r="E19" s="3">
         <v>4763818</v>
       </c>
-      <c r="G19" s="164"/>
-      <c r="H19" s="166"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="169"/>
+      <c r="G19" s="233"/>
+      <c r="H19" s="235"/>
+      <c r="I19" s="237"/>
+      <c r="J19" s="238"/>
     </row>
     <row r="20" spans="1:10" ht="15.5" thickTop="1" thickBot="1">
       <c r="A20" s="32">
@@ -5075,10 +5076,10 @@
       <c r="E20" s="3">
         <v>4940336</v>
       </c>
-      <c r="G20" s="164"/>
-      <c r="H20" s="167"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="169"/>
+      <c r="G20" s="233"/>
+      <c r="H20" s="236"/>
+      <c r="I20" s="237"/>
+      <c r="J20" s="238"/>
     </row>
     <row r="21" spans="1:10" ht="15.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A21" s="32">
@@ -5096,14 +5097,14 @@
       <c r="E21" s="3">
         <v>4273531</v>
       </c>
-      <c r="G21" s="164">
+      <c r="G21" s="233">
         <v>4</v>
       </c>
-      <c r="H21" s="165" t="s">
+      <c r="H21" s="234" t="s">
         <v>139</v>
       </c>
-      <c r="I21" s="168"/>
-      <c r="J21" s="169" t="str">
+      <c r="I21" s="237"/>
+      <c r="J21" s="238" t="str">
         <f>IF(I21="","Isi Jawabannya di Cell I21",IF(I21="A30:A36","YUP BENARR","COBA LAGI,JANGAN LUPA FORMAT NYA SESUAI ATURAN DIATAS YA"))</f>
         <v>Isi Jawabannya di Cell I21</v>
       </c>
@@ -5124,10 +5125,10 @@
       <c r="E22" s="3">
         <v>2802968</v>
       </c>
-      <c r="G22" s="164"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="G22" s="233"/>
+      <c r="H22" s="235"/>
+      <c r="I22" s="237"/>
+      <c r="J22" s="238"/>
     </row>
     <row r="23" spans="1:10" ht="14.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A23" s="32">
@@ -5145,10 +5146,10 @@
       <c r="E23" s="3">
         <v>2906270</v>
       </c>
-      <c r="G23" s="164"/>
-      <c r="H23" s="167"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
+      <c r="G23" s="233"/>
+      <c r="H23" s="236"/>
+      <c r="I23" s="237"/>
+      <c r="J23" s="238"/>
     </row>
     <row r="24" spans="1:10" ht="14.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A24" s="32">
@@ -5166,14 +5167,14 @@
       <c r="E24" s="3">
         <v>4533164</v>
       </c>
-      <c r="G24" s="164">
+      <c r="G24" s="233">
         <v>5</v>
       </c>
-      <c r="H24" s="165" t="s">
+      <c r="H24" s="234" t="s">
         <v>140</v>
       </c>
-      <c r="I24" s="168"/>
-      <c r="J24" s="169" t="str">
+      <c r="I24" s="237"/>
+      <c r="J24" s="238" t="str">
         <f>IF(I24="","Isi Jawabannya di kolom I24",IF(I24="b30:b33","YEAY KALAU SDH BENARR SEMUA,SEKARANG KAMU BISA KE LEVEL 2","COBA LAGI,JANGAN LUPA FORMAT NYA SESUAI ATURAN DIATAS YA"))</f>
         <v>Isi Jawabannya di kolom I24</v>
       </c>
@@ -5194,10 +5195,10 @@
       <c r="E25" s="3">
         <v>1204112</v>
       </c>
-      <c r="G25" s="164"/>
-      <c r="H25" s="166"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="169"/>
+      <c r="G25" s="233"/>
+      <c r="H25" s="235"/>
+      <c r="I25" s="237"/>
+      <c r="J25" s="238"/>
     </row>
     <row r="26" spans="1:10" ht="14.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A26" s="32">
@@ -5215,10 +5216,10 @@
       <c r="E26" s="3">
         <v>1447278</v>
       </c>
-      <c r="G26" s="164"/>
-      <c r="H26" s="167"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="169"/>
+      <c r="G26" s="233"/>
+      <c r="H26" s="236"/>
+      <c r="I26" s="237"/>
+      <c r="J26" s="238"/>
     </row>
     <row r="27" spans="1:10" ht="14.5" customHeight="1" thickTop="1">
       <c r="A27" s="32">
@@ -5287,14 +5288,14 @@
       <c r="E30" s="3">
         <v>2472211</v>
       </c>
-      <c r="H30" s="177" t="s">
+      <c r="H30" s="232" t="s">
         <v>143</v>
       </c>
-      <c r="I30" s="176" t="str">
+      <c r="I30" s="231" t="str">
         <f>IF(COUNTIF(J12:J26,"*BENARR*")=COUNTA(J12:J26),"SELESAI ","⏳ BELUM DISELESAIKAN")</f>
         <v>⏳ BELUM DISELESAIKAN</v>
       </c>
-      <c r="J30" s="176"/>
+      <c r="J30" s="231"/>
     </row>
     <row r="31" spans="1:10" ht="15" thickBot="1">
       <c r="A31" s="41">
@@ -5312,9 +5313,9 @@
       <c r="E31" s="3">
         <v>2019020</v>
       </c>
-      <c r="H31" s="177"/>
-      <c r="I31" s="176"/>
-      <c r="J31" s="176"/>
+      <c r="H31" s="232"/>
+      <c r="I31" s="231"/>
+      <c r="J31" s="231"/>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="41">
@@ -5627,16 +5628,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="CzLz13K2HgZxxYK8kW0HBatvLmY5jluq+TWxihi/+gvfX0Wktcg8mjnUrGnmqI623yQcvEo5oS38CxfaTGDN1A==" saltValue="/qS97gJTLSoLRz4y88zkRw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="25">
-    <mergeCell ref="I30:J31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="G21:G23"/>
-    <mergeCell ref="H21:H23"/>
-    <mergeCell ref="I21:I23"/>
-    <mergeCell ref="J21:J23"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
     <mergeCell ref="J18:J20"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="H6:H7"/>
@@ -5652,6 +5643,16 @@
     <mergeCell ref="H15:H17"/>
     <mergeCell ref="I15:I17"/>
     <mergeCell ref="J15:J17"/>
+    <mergeCell ref="I30:J31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="G21:G23"/>
+    <mergeCell ref="H21:H23"/>
+    <mergeCell ref="I21:I23"/>
+    <mergeCell ref="J21:J23"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
   </mergeCells>
   <conditionalFormatting sqref="F1:F2">
     <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="SELESAI">
@@ -5719,19 +5720,19 @@
       </c>
     </row>
     <row r="2" spans="1:26" ht="21.5" customHeight="1" thickBot="1">
-      <c r="B2" s="188" t="s">
+      <c r="B2" s="245" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="188"/>
+      <c r="C2" s="245"/>
       <c r="D2" s="133" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="21" customHeight="1" thickBot="1">
-      <c r="B3" s="189" t="s">
+      <c r="B3" s="246" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="189"/>
+      <c r="C3" s="246"/>
       <c r="D3" s="138" t="str">
         <f>IF(AND(COUNTIF(D10:D18,"*BENERR*")=ROWS(D10:D18),COUNTIF(D32:D34,"*BENAR*")=ROWS(D32:D34)),"SELESAI","⏳BELUM DISELESAIKAN")</f>
         <v>⏳BELUM DISELESAIKAN</v>
@@ -5742,7 +5743,7 @@
       <c r="B4" s="140"/>
       <c r="C4" s="21"/>
       <c r="D4" s="141" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
@@ -5798,8 +5799,8 @@
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="B6" s="190" t="s">
-        <v>160</v>
+      <c r="B6" s="247" t="s">
+        <v>159</v>
       </c>
       <c r="C6" s="45"/>
       <c r="E6" s="46"/>
@@ -5827,7 +5828,7 @@
     </row>
     <row r="7" spans="1:26" ht="12.5" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="B7" s="190"/>
+      <c r="B7" s="247"/>
       <c r="C7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -5919,10 +5920,10 @@
       <c r="Z9" s="11"/>
     </row>
     <row r="10" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A10" s="182">
+      <c r="A10" s="253">
         <v>1</v>
       </c>
-      <c r="B10" s="185" t="s">
+      <c r="B10" s="256" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="116" t="s">
@@ -5933,11 +5934,11 @@
         <v>SALAH</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="F10" s="191" t="s">
+      <c r="F10" s="248" t="s">
         <v>128</v>
       </c>
-      <c r="G10" s="191"/>
-      <c r="H10" s="191"/>
+      <c r="G10" s="248"/>
+      <c r="H10" s="248"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -5958,8 +5959,8 @@
       <c r="Z10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A11" s="183"/>
-      <c r="B11" s="186"/>
+      <c r="A11" s="254"/>
+      <c r="B11" s="257"/>
       <c r="C11" s="117" t="s">
         <v>130</v>
       </c>
@@ -5968,11 +5969,11 @@
         <v>SALAH</v>
       </c>
       <c r="E11" s="11"/>
-      <c r="F11" s="191" t="s">
+      <c r="F11" s="248" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="191"/>
-      <c r="H11" s="191"/>
+      <c r="G11" s="248"/>
+      <c r="H11" s="248"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -5993,8 +5994,8 @@
       <c r="Z11" s="11"/>
     </row>
     <row r="12" spans="1:26" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A12" s="184"/>
-      <c r="B12" s="187"/>
+      <c r="A12" s="255"/>
+      <c r="B12" s="258"/>
       <c r="C12" s="53" t="s">
         <v>27</v>
       </c>
@@ -6026,10 +6027,10 @@
       <c r="Z12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A13" s="182">
+      <c r="A13" s="253">
         <v>2</v>
       </c>
-      <c r="B13" s="185" t="s">
+      <c r="B13" s="256" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="47" t="s">
@@ -6063,8 +6064,8 @@
       <c r="Z13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A14" s="183"/>
-      <c r="B14" s="186"/>
+      <c r="A14" s="254"/>
+      <c r="B14" s="257"/>
       <c r="C14" s="48" t="s">
         <v>82</v>
       </c>
@@ -6096,8 +6097,8 @@
       <c r="Z14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="28" customHeight="1" thickBot="1">
-      <c r="A15" s="184"/>
-      <c r="B15" s="187"/>
+      <c r="A15" s="255"/>
+      <c r="B15" s="258"/>
       <c r="C15" s="49" t="s">
         <v>83</v>
       </c>
@@ -6129,10 +6130,10 @@
       <c r="Z15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A16" s="182">
+      <c r="A16" s="253">
         <v>3</v>
       </c>
-      <c r="B16" s="179" t="s">
+      <c r="B16" s="250" t="s">
         <v>145</v>
       </c>
       <c r="C16" s="50">
@@ -6167,8 +6168,8 @@
       <c r="Z16" s="11"/>
     </row>
     <row r="17" spans="1:26" ht="28.5" customHeight="1">
-      <c r="A17" s="183"/>
-      <c r="B17" s="180"/>
+      <c r="A17" s="254"/>
+      <c r="B17" s="251"/>
       <c r="C17" s="51">
         <f>2000000+410000</f>
         <v>2410000</v>
@@ -6201,8 +6202,8 @@
       <c r="Z17" s="11"/>
     </row>
     <row r="18" spans="1:26" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A18" s="184"/>
-      <c r="B18" s="181"/>
+      <c r="A18" s="255"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="52">
         <f>SUM(C24:C27)</f>
         <v>170</v>
@@ -6320,10 +6321,10 @@
     </row>
     <row r="22" spans="1:26" ht="16" thickBot="1">
       <c r="A22" s="11"/>
-      <c r="B22" s="178" t="s">
+      <c r="B22" s="249" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="178"/>
+      <c r="C22" s="249"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
@@ -9643,11 +9644,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="ORI4xW6bDqYvWUeuQItM84uZ9Ux3tpWAjhgFv/sadrPTEjuIBqVa0Q7AmlOJfcDzX0nbdzczKH4dsn7Rmo6D4w==" saltValue="jPfM62N2HRqQBQSJK71s0w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="12">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="F11:H11"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B16:B18"/>
     <mergeCell ref="A16:A18"/>
@@ -9655,6 +9651,11 @@
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="F11:H11"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A1:H39">
@@ -9710,8 +9711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2C7BC99-1402-4167-96B9-6702F0C00F7D}">
   <dimension ref="A1:BS70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9734,122 +9735,122 @@
     </row>
     <row r="2" spans="2:66" ht="15" thickBot="1"/>
     <row r="3" spans="2:66" ht="24.5" thickTop="1" thickBot="1">
-      <c r="C3" s="197" t="s">
+      <c r="C3" s="181" t="s">
         <v>146</v>
       </c>
-      <c r="D3" s="197"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
-      <c r="H3" s="200" t="s">
+      <c r="D3" s="181"/>
+      <c r="E3" s="181"/>
+      <c r="F3" s="181"/>
+      <c r="H3" s="184" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="201"/>
+      <c r="I3" s="185"/>
       <c r="K3" s="4"/>
     </row>
     <row r="4" spans="2:66" ht="16" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C4" s="199" t="s">
+      <c r="C4" s="183" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="199"/>
-      <c r="E4" s="199"/>
-      <c r="F4" s="199"/>
-      <c r="H4" s="204" t="s">
+      <c r="D4" s="183"/>
+      <c r="E4" s="183"/>
+      <c r="F4" s="183"/>
+      <c r="H4" s="188" t="s">
         <v>150</v>
       </c>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="206"/>
+      <c r="I4" s="189"/>
+      <c r="J4" s="189"/>
+      <c r="K4" s="190"/>
     </row>
     <row r="5" spans="2:66" ht="28" customHeight="1" thickBot="1">
-      <c r="C5" s="198" t="s">
+      <c r="C5" s="182" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="198"/>
-      <c r="E5" s="198"/>
-      <c r="F5" s="198"/>
-      <c r="H5" s="207"/>
-      <c r="I5" s="208"/>
-      <c r="J5" s="208"/>
-      <c r="K5" s="209"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="H5" s="191"/>
+      <c r="I5" s="192"/>
+      <c r="J5" s="192"/>
+      <c r="K5" s="193"/>
     </row>
     <row r="6" spans="2:66" ht="15" thickBot="1">
-      <c r="D6" s="202" t="s">
+      <c r="D6" s="186" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="203"/>
+      <c r="E6" s="187"/>
       <c r="F6" s="135" t="str">
         <f>C67</f>
         <v>⏳ BELUM DISELESAIKAN</v>
       </c>
-      <c r="H6" s="210"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="212"/>
+      <c r="H6" s="194"/>
+      <c r="I6" s="195"/>
+      <c r="J6" s="195"/>
+      <c r="K6" s="196"/>
     </row>
     <row r="8" spans="2:66" ht="18.5">
       <c r="C8" s="142" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="2:66">
       <c r="B10" s="11"/>
-      <c r="C10" s="268" t="s">
+      <c r="C10" s="178" t="s">
         <v>149</v>
       </c>
-      <c r="D10" s="269"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="270"/>
-      <c r="G10" s="270"/>
+      <c r="D10" s="179"/>
+      <c r="E10" s="179"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="2:66">
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
-      <c r="D11" s="269"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="270"/>
-      <c r="G11" s="270"/>
+      <c r="D11" s="179"/>
+      <c r="E11" s="179"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="2:66" ht="14.5" customHeight="1">
-      <c r="B12" s="234" t="s">
+      <c r="B12" s="144" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="235" t="s">
+      <c r="C12" s="145" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="235" t="s">
+      <c r="D12" s="145" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="236" t="s">
+      <c r="E12" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="237" t="s">
+      <c r="F12" s="147" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="238"/>
-      <c r="H12" s="239" t="s">
+      <c r="G12" s="148"/>
+      <c r="H12" s="149" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="239"/>
+      <c r="I12" s="149"/>
     </row>
     <row r="13" spans="2:66">
-      <c r="B13" s="240"/>
-      <c r="C13" s="241"/>
-      <c r="D13" s="242"/>
-      <c r="E13" s="243"/>
-      <c r="F13" s="238" t="s">
+      <c r="B13" s="150"/>
+      <c r="C13" s="151"/>
+      <c r="D13" s="152"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="148" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="238" t="s">
+      <c r="G13" s="148" t="s">
         <v>13</v>
       </c>
-      <c r="H13" s="239" t="s">
+      <c r="H13" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="239" t="s">
+      <c r="I13" s="149" t="s">
         <v>13</v>
       </c>
     </row>
@@ -9857,26 +9858,26 @@
       <c r="B14" s="11">
         <v>1</v>
       </c>
-      <c r="C14" s="244">
+      <c r="C14" s="154">
         <v>46003</v>
       </c>
-      <c r="D14" s="245" t="s">
+      <c r="D14" s="155" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="246">
+      <c r="E14" s="156">
         <v>50</v>
       </c>
-      <c r="F14" s="238">
+      <c r="F14" s="148">
         <v>3000</v>
       </c>
-      <c r="G14" s="247">
+      <c r="G14" s="157">
         <v>3500</v>
       </c>
-      <c r="H14" s="248">
+      <c r="H14" s="158">
         <f>E14*F14</f>
         <v>150000</v>
       </c>
-      <c r="I14" s="248">
+      <c r="I14" s="158">
         <f>E14*G14</f>
         <v>175000</v>
       </c>
@@ -9886,26 +9887,26 @@
       <c r="B15" s="11">
         <v>3</v>
       </c>
-      <c r="C15" s="249" t="s">
+      <c r="C15" s="159" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="250" t="s">
+      <c r="D15" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="239">
+      <c r="E15" s="149">
         <v>12</v>
       </c>
-      <c r="F15" s="251">
+      <c r="F15" s="161">
         <v>30000</v>
       </c>
-      <c r="G15" s="252">
+      <c r="G15" s="162">
         <v>33000</v>
       </c>
-      <c r="H15" s="253">
+      <c r="H15" s="163">
         <f t="shared" ref="H15:H21" si="0">E15*F15</f>
         <v>360000</v>
       </c>
-      <c r="I15" s="253">
+      <c r="I15" s="163">
         <f t="shared" ref="I15:I21" si="1">E15*G15</f>
         <v>396000</v>
       </c>
@@ -9914,25 +9915,25 @@
       <c r="B16" s="11">
         <v>4</v>
       </c>
-      <c r="C16" s="244">
+      <c r="C16" s="154">
         <v>46372</v>
       </c>
-      <c r="D16" s="254" t="s">
+      <c r="D16" s="164" t="s">
         <v>18</v>
       </c>
-      <c r="E16" s="255">
+      <c r="E16" s="165">
         <v>30</v>
       </c>
-      <c r="F16" s="238">
+      <c r="F16" s="148">
         <v>5000</v>
       </c>
-      <c r="G16" s="256">
+      <c r="G16" s="166">
         <v>4000</v>
       </c>
-      <c r="H16" s="257" t="s">
+      <c r="H16" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="I16" s="258">
+      <c r="I16" s="168">
         <f t="shared" si="1"/>
         <v>120000</v>
       </c>
@@ -9941,7 +9942,7 @@
       <c r="B17" s="11">
         <v>5</v>
       </c>
-      <c r="C17" s="244">
+      <c r="C17" s="154">
         <v>46373</v>
       </c>
       <c r="D17" s="11" t="s">
@@ -9950,17 +9951,17 @@
       <c r="E17" s="11">
         <v>80</v>
       </c>
-      <c r="F17" s="259">
+      <c r="F17" s="169">
         <v>2000</v>
       </c>
-      <c r="G17" s="252">
+      <c r="G17" s="162">
         <v>2500</v>
       </c>
-      <c r="H17" s="253">
+      <c r="H17" s="163">
         <f t="shared" si="0"/>
         <v>160000</v>
       </c>
-      <c r="I17" s="253">
+      <c r="I17" s="163">
         <f t="shared" si="1"/>
         <v>200000</v>
       </c>
@@ -9969,7 +9970,7 @@
       <c r="B18" s="11">
         <v>5</v>
       </c>
-      <c r="C18" s="260">
+      <c r="C18" s="170">
         <v>46376</v>
       </c>
       <c r="D18" s="11" t="s">
@@ -9978,17 +9979,17 @@
       <c r="E18" s="11">
         <v>100</v>
       </c>
-      <c r="F18" s="259">
+      <c r="F18" s="169">
         <v>500</v>
       </c>
-      <c r="G18" s="252">
+      <c r="G18" s="162">
         <v>1000</v>
       </c>
-      <c r="H18" s="253">
+      <c r="H18" s="163">
         <f t="shared" si="0"/>
         <v>50000</v>
       </c>
-      <c r="I18" s="253">
+      <c r="I18" s="163">
         <f t="shared" si="1"/>
         <v>100000</v>
       </c>
@@ -9997,7 +9998,7 @@
       <c r="B19" s="11">
         <v>10</v>
       </c>
-      <c r="C19" s="261">
+      <c r="C19" s="171">
         <v>46377</v>
       </c>
       <c r="D19" s="11" t="s">
@@ -10006,17 +10007,17 @@
       <c r="E19" s="11">
         <v>60</v>
       </c>
-      <c r="F19" s="262">
+      <c r="F19" s="172">
         <v>4000</v>
       </c>
-      <c r="G19" s="263">
+      <c r="G19" s="173">
         <v>4000</v>
       </c>
-      <c r="H19" s="264">
+      <c r="H19" s="174">
         <f t="shared" si="0"/>
         <v>240000</v>
       </c>
-      <c r="I19" s="264">
+      <c r="I19" s="174">
         <f t="shared" si="1"/>
         <v>240000</v>
       </c>
@@ -10025,26 +10026,26 @@
       <c r="B20" s="11">
         <v>10</v>
       </c>
-      <c r="C20" s="265" t="s">
+      <c r="C20" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="246" t="s">
+      <c r="D20" s="156" t="s">
         <v>21</v>
       </c>
-      <c r="E20" s="246">
+      <c r="E20" s="156">
         <v>35</v>
       </c>
-      <c r="F20" s="238">
+      <c r="F20" s="148">
         <v>4000</v>
       </c>
-      <c r="G20" s="238">
+      <c r="G20" s="148">
         <v>3000</v>
       </c>
-      <c r="H20" s="266">
+      <c r="H20" s="176">
         <f t="shared" si="0"/>
         <v>140000</v>
       </c>
-      <c r="I20" s="266">
+      <c r="I20" s="176">
         <f t="shared" si="1"/>
         <v>105000</v>
       </c>
@@ -10053,26 +10054,26 @@
       <c r="B21" s="11">
         <v>10</v>
       </c>
-      <c r="C21" s="267">
+      <c r="C21" s="177">
         <v>46379</v>
       </c>
-      <c r="D21" s="239" t="s">
+      <c r="D21" s="149" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="239">
+      <c r="E21" s="149">
         <v>22</v>
       </c>
-      <c r="F21" s="238">
+      <c r="F21" s="148">
         <v>10000</v>
       </c>
-      <c r="G21" s="238">
+      <c r="G21" s="148">
         <v>9500</v>
       </c>
-      <c r="H21" s="266">
+      <c r="H21" s="176">
         <f t="shared" si="0"/>
         <v>220000</v>
       </c>
-      <c r="I21" s="266">
+      <c r="I21" s="176">
         <f t="shared" si="1"/>
         <v>209000</v>
       </c>
@@ -10082,8 +10083,8 @@
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
-      <c r="F22" s="270"/>
-      <c r="G22" s="270"/>
+      <c r="F22" s="180"/>
+      <c r="G22" s="180"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
@@ -10092,25 +10093,25 @@
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
-      <c r="F23" s="270"/>
+      <c r="F23" s="180"/>
       <c r="G23" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="253">
+      <c r="H23" s="163">
         <f>SUM(H14:H22)</f>
         <v>1320000</v>
       </c>
-      <c r="I23" s="253">
+      <c r="I23" s="163">
         <f>SUM(I14:I22)</f>
         <v>1545000</v>
       </c>
     </row>
     <row r="24" spans="1:21">
-      <c r="B24" s="196" t="str">
+      <c r="B24" s="201" t="str">
         <f>IF(SUMPRODUCT(--(B14:B21=ROW(B14:B21)-ROW(B14)+1))=ROWS(B14:B21),"YEAY Kolom no nya sudah benar","")</f>
         <v/>
       </c>
-      <c r="C24" s="196"/>
+      <c r="C24" s="201"/>
       <c r="D24" s="69"/>
       <c r="E24" s="69"/>
       <c r="F24" s="136"/>
@@ -10119,27 +10120,27 @@
       <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:21">
-      <c r="B25" s="196"/>
-      <c r="C25" s="196"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="201"/>
       <c r="D25" s="69"/>
       <c r="E25" s="69"/>
       <c r="F25" s="136"/>
       <c r="G25" s="136"/>
-      <c r="H25" s="196" t="str">
+      <c r="H25" s="201" t="str">
         <f>IF(SUMPRODUCT(--(H14:H21=E14:E21*F14:F21))=ROWS(H14:H21),"YEAY RUMUSNYA UDAH KAMU BENERIN, NICE !","")</f>
         <v/>
       </c>
-      <c r="I25" s="196"/>
+      <c r="I25" s="201"/>
     </row>
     <row r="26" spans="1:21">
-      <c r="B26" s="196"/>
-      <c r="C26" s="196"/>
+      <c r="B26" s="201"/>
+      <c r="C26" s="201"/>
       <c r="D26" s="69"/>
       <c r="E26" s="69"/>
       <c r="F26" s="136"/>
       <c r="G26" s="136"/>
-      <c r="H26" s="196"/>
-      <c r="I26" s="196"/>
+      <c r="H26" s="201"/>
+      <c r="I26" s="201"/>
     </row>
     <row r="27" spans="1:21">
       <c r="B27" s="69"/>
@@ -10148,8 +10149,8 @@
       <c r="E27" s="69"/>
       <c r="F27" s="136"/>
       <c r="G27" s="136"/>
-      <c r="H27" s="196"/>
-      <c r="I27" s="196"/>
+      <c r="H27" s="201"/>
+      <c r="I27" s="201"/>
     </row>
     <row r="28" spans="1:21">
       <c r="B28" s="69"/>
@@ -10158,8 +10159,8 @@
       <c r="E28" s="69"/>
       <c r="F28" s="136"/>
       <c r="G28" s="136"/>
-      <c r="H28" s="196"/>
-      <c r="I28" s="196"/>
+      <c r="H28" s="201"/>
+      <c r="I28" s="201"/>
     </row>
     <row r="30" spans="1:21" ht="15" thickBot="1"/>
     <row r="31" spans="1:21" ht="4" customHeight="1" thickBot="1">
@@ -10306,22 +10307,22 @@
       </c>
     </row>
     <row r="56" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
-      <c r="C56" s="193" t="s">
+      <c r="C56" s="198" t="s">
         <v>153</v>
       </c>
-      <c r="D56" s="193"/>
-      <c r="E56" s="193"/>
-      <c r="F56" s="194" t="s">
+      <c r="D56" s="198"/>
+      <c r="E56" s="198"/>
+      <c r="F56" s="268" t="s">
         <v>155</v>
       </c>
       <c r="G56" s="136"/>
       <c r="H56" s="69"/>
     </row>
     <row r="57" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
-      <c r="C57" s="193"/>
-      <c r="D57" s="193"/>
-      <c r="E57" s="193"/>
-      <c r="F57" s="194"/>
+      <c r="C57" s="198"/>
+      <c r="D57" s="198"/>
+      <c r="E57" s="198"/>
+      <c r="F57" s="268"/>
       <c r="G57" s="69" t="str">
         <f>IF(F56="BELUM","KALAU GITU AYO EDIT DULU YA","")</f>
         <v>KALAU GITU AYO EDIT DULU YA</v>
@@ -10329,18 +10330,18 @@
       <c r="H57" s="69"/>
     </row>
     <row r="58" spans="3:8" ht="14.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C58" s="193"/>
-      <c r="D58" s="193"/>
-      <c r="E58" s="193"/>
-      <c r="F58" s="194"/>
+      <c r="C58" s="198"/>
+      <c r="D58" s="198"/>
+      <c r="E58" s="198"/>
+      <c r="F58" s="268"/>
       <c r="G58" s="136"/>
       <c r="H58" s="69"/>
     </row>
     <row r="59" spans="3:8" ht="14.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="C59" s="193"/>
-      <c r="D59" s="193"/>
-      <c r="E59" s="193"/>
-      <c r="F59" s="194"/>
+      <c r="C59" s="198"/>
+      <c r="D59" s="198"/>
+      <c r="E59" s="198"/>
+      <c r="F59" s="268"/>
       <c r="G59" s="136"/>
       <c r="H59" s="69"/>
     </row>
@@ -10348,39 +10349,39 @@
       <c r="C60" s="69"/>
       <c r="D60" s="69"/>
       <c r="E60" s="69"/>
-      <c r="F60" s="136"/>
+      <c r="F60" s="180"/>
       <c r="G60" s="136"/>
       <c r="H60" s="69"/>
     </row>
     <row r="61" spans="3:8" ht="15" thickTop="1">
-      <c r="C61" s="213" t="str">
+      <c r="C61" s="202" t="str">
         <f>IF(F56="SUDAH","YAKIN NIH UDAH? JANGAN BOHONG YAA","")</f>
         <v/>
       </c>
-      <c r="D61" s="214"/>
-      <c r="E61" s="215"/>
-      <c r="F61" s="222" t="s">
-        <v>156</v>
+      <c r="D61" s="203"/>
+      <c r="E61" s="204"/>
+      <c r="F61" s="269" t="s">
+        <v>155</v>
       </c>
       <c r="G61" s="137"/>
       <c r="H61" s="69"/>
     </row>
     <row r="62" spans="3:8">
-      <c r="C62" s="216"/>
-      <c r="D62" s="217"/>
-      <c r="E62" s="218"/>
-      <c r="F62" s="223"/>
+      <c r="C62" s="205"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="207"/>
+      <c r="F62" s="270"/>
       <c r="G62" s="69" t="str">
         <f>IF(F61="SUDAH","YEAY BERARTI KAMU SUDAH BISA MERAPIKAN DATA YAAA",IF(F61="BELUM","KALAU GITU AYO EDIT DULU YA",""))</f>
-        <v>YEAY BERARTI KAMU SUDAH BISA MERAPIKAN DATA YAAA</v>
+        <v>KALAU GITU AYO EDIT DULU YA</v>
       </c>
       <c r="H62" s="69"/>
     </row>
     <row r="63" spans="3:8" ht="15" thickBot="1">
-      <c r="C63" s="219"/>
-      <c r="D63" s="220"/>
-      <c r="E63" s="221"/>
-      <c r="F63" s="224"/>
+      <c r="C63" s="208"/>
+      <c r="D63" s="209"/>
+      <c r="E63" s="210"/>
+      <c r="F63" s="271"/>
       <c r="G63" s="137"/>
       <c r="H63" s="69"/>
     </row>
@@ -10401,54 +10402,48 @@
       <c r="H65" s="69"/>
     </row>
     <row r="66" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
-      <c r="C66" s="192" t="s">
+      <c r="C66" s="197" t="s">
         <v>148</v>
       </c>
-      <c r="D66" s="192"/>
-      <c r="E66" s="195" t="s">
+      <c r="D66" s="197"/>
+      <c r="E66" s="200" t="s">
         <v>88</v>
       </c>
-      <c r="F66" s="195"/>
-      <c r="G66" s="195"/>
-      <c r="H66" s="195"/>
+      <c r="F66" s="200"/>
+      <c r="G66" s="200"/>
+      <c r="H66" s="200"/>
     </row>
     <row r="67" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
-      <c r="C67" s="194" t="str">
-        <f>IF(G62="*SUDAH*","SELESAAII","⏳ BELUM DISELESAIKAN")</f>
+      <c r="C67" s="199" t="str">
+        <f>IF(F61="SUDAH","SELESAAII","⏳ BELUM DISELESAIKAN")</f>
         <v>⏳ BELUM DISELESAIKAN</v>
       </c>
-      <c r="D67" s="194"/>
-      <c r="E67" s="195"/>
-      <c r="F67" s="195"/>
-      <c r="G67" s="195"/>
-      <c r="H67" s="195"/>
+      <c r="D67" s="199"/>
+      <c r="E67" s="200"/>
+      <c r="F67" s="200"/>
+      <c r="G67" s="200"/>
+      <c r="H67" s="200"/>
     </row>
     <row r="68" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
-      <c r="C68" s="194"/>
-      <c r="D68" s="194"/>
-      <c r="E68" s="195"/>
-      <c r="F68" s="195"/>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="199"/>
+      <c r="E68" s="200"/>
+      <c r="F68" s="200"/>
+      <c r="G68" s="200"/>
+      <c r="H68" s="200"/>
     </row>
     <row r="69" spans="3:8" ht="15.5" thickTop="1" thickBot="1">
-      <c r="C69" s="194"/>
-      <c r="D69" s="194"/>
-      <c r="E69" s="195"/>
-      <c r="F69" s="195"/>
-      <c r="G69" s="195"/>
-      <c r="H69" s="195"/>
+      <c r="C69" s="199"/>
+      <c r="D69" s="199"/>
+      <c r="E69" s="200"/>
+      <c r="F69" s="200"/>
+      <c r="G69" s="200"/>
+      <c r="H69" s="200"/>
     </row>
     <row r="70" spans="3:8" ht="15" thickTop="1"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="2pAYsU36yO3bFjIANcA4s9V2bGh2qwckk1ACq46RjusL0OOeThUSiZUS5ynI/RezdUt4fGT61NhQ+ZvaTH/S8w==" saltValue="S46mEWXbuwY3GQ7nQ+4Row==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" autoFilter="0"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="HMK3Pn99QTwRhSjzdvi+tVYX9oR8G5NO35rqZR2Y//SW4cA8Zvm2pJfN7phRvUrqKTneayMOaLT7LudkN+wKjg==" saltValue="ooTES/amRwzm6FvdSlPDNg==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" autoFilter="0"/>
   <mergeCells count="15">
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="H4:K6"/>
     <mergeCell ref="C66:D66"/>
     <mergeCell ref="C56:E59"/>
     <mergeCell ref="F56:F59"/>
@@ -10458,6 +10453,12 @@
     <mergeCell ref="C61:E63"/>
     <mergeCell ref="F61:F63"/>
     <mergeCell ref="C67:D69"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H4:K6"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:T71">
     <cfRule type="expression" dxfId="2" priority="1">
@@ -10507,41 +10508,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="18.5" thickBot="1">
-      <c r="B1" s="228" t="s">
-        <v>157</v>
-      </c>
-      <c r="C1" s="229"/>
-      <c r="D1" s="229"/>
-      <c r="E1" s="229"/>
-      <c r="F1" s="229"/>
-      <c r="G1" s="229"/>
-      <c r="H1" s="232" t="s">
+      <c r="B1" s="262" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="263"/>
+      <c r="D1" s="263"/>
+      <c r="E1" s="263"/>
+      <c r="F1" s="263"/>
+      <c r="G1" s="263"/>
+      <c r="H1" s="266" t="s">
         <v>148</v>
       </c>
-      <c r="I1" s="232"/>
+      <c r="I1" s="266"/>
       <c r="O1" s="139" t="str">
         <f>INDEX('LEVEL 3'!F6,1,1)</f>
         <v>⏳ BELUM DISELESAIKAN</v>
       </c>
     </row>
     <row r="2" spans="2:15" ht="15" thickBot="1">
-      <c r="B2" s="230" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="231"/>
-      <c r="D2" s="231"/>
-      <c r="E2" s="231"/>
-      <c r="F2" s="231"/>
-      <c r="G2" s="231"/>
-      <c r="H2" s="233" t="str">
+      <c r="B2" s="264" t="s">
+        <v>157</v>
+      </c>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
+      <c r="E2" s="265"/>
+      <c r="F2" s="265"/>
+      <c r="G2" s="265"/>
+      <c r="H2" s="267" t="str">
         <f>IF(I11="*Level 4*","SELESAI","⏳ BELUM DISELESAIKAN")</f>
         <v>⏳ BELUM DISELESAIKAN</v>
       </c>
-      <c r="I2" s="233"/>
+      <c r="I2" s="267"/>
     </row>
     <row r="3" spans="2:15" ht="23" customHeight="1">
       <c r="B3" s="143" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -10558,13 +10559,13 @@
       <c r="E5" s="67"/>
       <c r="F5" s="67"/>
       <c r="G5" s="67"/>
-      <c r="I5" s="226" t="s">
+      <c r="I5" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="J5" s="226"/>
-      <c r="K5" s="226"/>
-      <c r="L5" s="226"/>
-      <c r="M5" s="226"/>
+      <c r="J5" s="260"/>
+      <c r="K5" s="260"/>
+      <c r="L5" s="260"/>
+      <c r="M5" s="260"/>
     </row>
     <row r="6" spans="2:15">
       <c r="B6" s="67" t="s">
@@ -10639,14 +10640,14 @@
       <c r="G11" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="225" t="str">
+      <c r="I11" s="259" t="str">
         <f>IF(AND(COUNTIF($G$12:$G$21,"#VALUE!")=0,COUNT($G$12:$G$21)=ROWS($G$12:$G$21)),"Yeay! Udah semua 🎉 Terima kasih sudah mengikuti latihan sampai Level 4 ini, sampai jumpa di latihan selanjutnya 😊","")</f>
         <v/>
       </c>
-      <c r="J11" s="225"/>
-      <c r="K11" s="225"/>
-      <c r="L11" s="225"/>
-      <c r="M11" s="225"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
     </row>
     <row r="12" spans="2:15" ht="14.5" customHeight="1">
       <c r="B12" s="74"/>
@@ -10666,11 +10667,11 @@
         <f>E12*F12</f>
         <v>30000000</v>
       </c>
-      <c r="I12" s="225"/>
-      <c r="J12" s="225"/>
-      <c r="K12" s="225"/>
-      <c r="L12" s="225"/>
-      <c r="M12" s="225"/>
+      <c r="I12" s="259"/>
+      <c r="J12" s="259"/>
+      <c r="K12" s="259"/>
+      <c r="L12" s="259"/>
+      <c r="M12" s="259"/>
       <c r="N12" s="68"/>
       <c r="O12" s="68"/>
     </row>
@@ -10692,11 +10693,11 @@
         <f t="shared" ref="G13:G21" si="0">E13*F13</f>
         <v>750000</v>
       </c>
-      <c r="I13" s="225"/>
-      <c r="J13" s="225"/>
-      <c r="K13" s="225"/>
-      <c r="L13" s="225"/>
-      <c r="M13" s="225"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="259"/>
     </row>
     <row r="14" spans="2:15" ht="14.5" customHeight="1">
       <c r="B14" s="74"/>
@@ -10716,11 +10717,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I14" s="225"/>
-      <c r="J14" s="225"/>
-      <c r="K14" s="225"/>
-      <c r="L14" s="225"/>
-      <c r="M14" s="225"/>
+      <c r="I14" s="259"/>
+      <c r="J14" s="259"/>
+      <c r="K14" s="259"/>
+      <c r="L14" s="259"/>
+      <c r="M14" s="259"/>
     </row>
     <row r="15" spans="2:15">
       <c r="B15" s="74"/>
@@ -10740,14 +10741,14 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I15" s="225" t="str">
+      <c r="I15" s="259" t="str">
         <f>IF(AND(COUNTIF($G$12:$G$21,"#VALUE!")=0,COUNT($G$12:$G$21)=ROWS($G$12:$G$21)),"Jangan lupa nyalakan notifikasi untuk channel RanMaudy biar ga ketinggalan chapter selanjutnya!","")</f>
         <v/>
       </c>
-      <c r="J15" s="225"/>
-      <c r="K15" s="225"/>
-      <c r="L15" s="225"/>
-      <c r="M15" s="225"/>
+      <c r="J15" s="259"/>
+      <c r="K15" s="259"/>
+      <c r="L15" s="259"/>
+      <c r="M15" s="259"/>
     </row>
     <row r="16" spans="2:15" ht="14.5" customHeight="1">
       <c r="B16" s="74"/>
@@ -10767,11 +10768,11 @@
         <f t="shared" si="0"/>
         <v>1800000</v>
       </c>
-      <c r="I16" s="225"/>
-      <c r="J16" s="225"/>
-      <c r="K16" s="225"/>
-      <c r="L16" s="225"/>
-      <c r="M16" s="225"/>
+      <c r="I16" s="259"/>
+      <c r="J16" s="259"/>
+      <c r="K16" s="259"/>
+      <c r="L16" s="259"/>
+      <c r="M16" s="259"/>
     </row>
     <row r="17" spans="2:13">
       <c r="B17" s="74"/>
@@ -10791,11 +10792,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I17" s="225"/>
-      <c r="J17" s="225"/>
-      <c r="K17" s="225"/>
-      <c r="L17" s="225"/>
-      <c r="M17" s="225"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="259"/>
     </row>
     <row r="18" spans="2:13">
       <c r="B18" s="74"/>
@@ -10815,11 +10816,11 @@
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="I18" s="225"/>
-      <c r="J18" s="225"/>
-      <c r="K18" s="225"/>
-      <c r="L18" s="225"/>
-      <c r="M18" s="225"/>
+      <c r="I18" s="259"/>
+      <c r="J18" s="259"/>
+      <c r="K18" s="259"/>
+      <c r="L18" s="259"/>
+      <c r="M18" s="259"/>
     </row>
     <row r="19" spans="2:13">
       <c r="B19" s="74"/>
@@ -10880,30 +10881,30 @@
     </row>
     <row r="23" spans="2:13" ht="14.5" customHeight="1"/>
     <row r="24" spans="2:13" ht="14.5" customHeight="1">
-      <c r="B24" s="227" t="str">
+      <c r="B24" s="261" t="str">
         <f>IF(SUMPRODUCT(--(B12:B21=ROW(B12:B21)-ROW(B12)+1))=ROWS(B12:B21),"Yeay! Kolom No sudah benar, dipastikan cara pengerjaannya pakai drag yaa 🎉","")</f>
         <v/>
       </c>
-      <c r="C24" s="227"/>
-      <c r="D24" s="227"/>
+      <c r="C24" s="261"/>
+      <c r="D24" s="261"/>
       <c r="E24" s="69"/>
     </row>
     <row r="25" spans="2:13" ht="14.5" customHeight="1">
-      <c r="B25" s="227"/>
-      <c r="C25" s="227"/>
-      <c r="D25" s="227"/>
+      <c r="B25" s="261"/>
+      <c r="C25" s="261"/>
+      <c r="D25" s="261"/>
       <c r="E25" s="69"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="227"/>
-      <c r="C26" s="227"/>
-      <c r="D26" s="227"/>
+      <c r="B26" s="261"/>
+      <c r="C26" s="261"/>
+      <c r="D26" s="261"/>
       <c r="E26" s="69"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="227"/>
-      <c r="C27" s="227"/>
-      <c r="D27" s="227"/>
+      <c r="B27" s="261"/>
+      <c r="C27" s="261"/>
+      <c r="D27" s="261"/>
       <c r="E27" s="69"/>
     </row>
     <row r="28" spans="2:13">
